--- a/docs/post/covidsh/data/shcovid.xlsx
+++ b/docs/post/covidsh/data/shcovid.xlsx
@@ -433,194 +433,194 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="D2" t="n">
-        <v>6866</v>
+        <v>7983</v>
       </c>
       <c r="E2" t="n">
-        <v>7071</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>962</v>
+        <v>642</v>
       </c>
       <c r="E3" t="n">
-        <v>970</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>1221</v>
+        <v>897</v>
       </c>
       <c r="E5" t="n">
-        <v>1229</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>250</v>
+        <v>476</v>
       </c>
       <c r="E7" t="n">
-        <v>254</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="E8" t="n">
-        <v>608</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>210</v>
+        <v>612</v>
       </c>
       <c r="E9" t="n">
-        <v>220</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>264</v>
+        <v>547</v>
       </c>
       <c r="E10" t="n">
-        <v>265</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>1370</v>
+        <v>2914</v>
       </c>
       <c r="E11" t="n">
-        <v>1381</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -629,49 +629,49 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>553</v>
+        <v>782</v>
       </c>
       <c r="E14" t="n">
-        <v>559</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="E15" t="n">
-        <v>314</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -680,236 +680,236 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="E16" t="n">
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="D18" t="n">
-        <v>3514</v>
+        <v>6866</v>
       </c>
       <c r="E18" t="n">
-        <v>3654</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>810</v>
+        <v>962</v>
       </c>
       <c r="E19" t="n">
-        <v>824</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>338</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>465</v>
+        <v>1221</v>
       </c>
       <c r="E21" t="n">
-        <v>499</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E23" t="n">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>177</v>
+        <v>603</v>
       </c>
       <c r="E24" t="n">
-        <v>188</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="E25" t="n">
-        <v>374</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>435</v>
+        <v>264</v>
       </c>
       <c r="E26" t="n">
-        <v>467</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>872</v>
+        <v>1370</v>
       </c>
       <c r="E27" t="n">
-        <v>940</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>415</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -918,287 +918,287 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>553</v>
       </c>
       <c r="E30" t="n">
-        <v>263</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="E31" t="n">
-        <v>232</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E32" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="E33" t="n">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D34" t="n">
-        <v>1930</v>
+        <v>3514</v>
       </c>
       <c r="E34" t="n">
-        <v>2038</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
-        <v>632</v>
+        <v>810</v>
       </c>
       <c r="E35" t="n">
-        <v>659</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E36" t="n">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>998</v>
+        <v>465</v>
       </c>
       <c r="E37" t="n">
-        <v>1042</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E39" t="n">
-        <v>388</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="E40" t="n">
-        <v>342</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="E41" t="n">
-        <v>274</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E42" t="n">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D43" t="n">
-        <v>774</v>
+        <v>872</v>
       </c>
       <c r="E43" t="n">
-        <v>829</v>
+        <v>940</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>591</v>
+        <v>401</v>
       </c>
       <c r="E44" t="n">
-        <v>617</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="E46" t="n">
-        <v>567</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -1207,508 +1207,508 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E47" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E48" t="n">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="E49" t="n">
-        <v>113</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D50" t="n">
-        <v>2505</v>
+        <v>1930</v>
       </c>
       <c r="E50" t="n">
-        <v>2584</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>255</v>
+        <v>632</v>
       </c>
       <c r="E51" t="n">
-        <v>260</v>
+        <v>659</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="E52" t="n">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D53" t="n">
-        <v>602</v>
+        <v>998</v>
       </c>
       <c r="E53" t="n">
-        <v>639</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E54" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D55" t="n">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="E55" t="n">
-        <v>245</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="E56" t="n">
-        <v>61</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="E57" t="n">
-        <v>134</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="E58" t="n">
-        <v>45</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
-        <v>986</v>
+        <v>774</v>
       </c>
       <c r="E59" t="n">
-        <v>1043</v>
+        <v>829</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
-        <v>191</v>
+        <v>591</v>
       </c>
       <c r="E60" t="n">
-        <v>200</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="E62" t="n">
-        <v>493</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="E63" t="n">
-        <v>87</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E64" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E65" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D66" t="n">
-        <v>2227</v>
+        <v>2505</v>
       </c>
       <c r="E66" t="n">
-        <v>2407</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="E67" t="n">
-        <v>121</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E68" t="n">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D69" t="n">
-        <v>206</v>
+        <v>602</v>
       </c>
       <c r="E69" t="n">
-        <v>226</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="E70" t="n">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E72" t="n">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="E73" t="n">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D75" t="n">
-        <v>333</v>
+        <v>986</v>
       </c>
       <c r="E75" t="n">
-        <v>392</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="E76" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -1717,66 +1717,66 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="E78" t="n">
-        <v>184</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E80" t="n">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -1785,100 +1785,100 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E81" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="D82" t="n">
-        <v>1958</v>
+        <v>2227</v>
       </c>
       <c r="E82" t="n">
-        <v>2207</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="E83" t="n">
-        <v>361</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="E84" t="n">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="E85" t="n">
-        <v>404</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="E86" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -1887,219 +1887,219 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="E87" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E88" t="n">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>503</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>504</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D91" t="n">
-        <v>761</v>
+        <v>333</v>
       </c>
       <c r="E91" t="n">
-        <v>780</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E92" t="n">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E93" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="E94" t="n">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E95" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E96" t="n">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E97" t="n">
-        <v>193</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D98" t="n">
-        <v>2014</v>
+        <v>1958</v>
       </c>
       <c r="E98" t="n">
-        <v>2183</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="E99" t="n">
-        <v>110</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2108,49 +2108,49 @@
         <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E100" t="n">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>1066</v>
+        <v>389</v>
       </c>
       <c r="E101" t="n">
-        <v>1100</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -2159,32 +2159,32 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E103" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E104" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -2193,49 +2193,49 @@
         <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E105" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="E106" t="n">
-        <v>363</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D107" t="n">
-        <v>958</v>
+        <v>761</v>
       </c>
       <c r="E107" t="n">
-        <v>987</v>
+        <v>780</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -2244,389 +2244,389 @@
         <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E110" t="n">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E111" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E112" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="E113" t="n">
-        <v>55</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D114" t="n">
-        <v>2467</v>
+        <v>2014</v>
       </c>
       <c r="E114" t="n">
-        <v>2506</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="E115" t="n">
-        <v>283</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="E116" t="n">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D117" t="n">
-        <v>85</v>
+        <v>1066</v>
       </c>
       <c r="E117" t="n">
-        <v>91</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E118" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E119" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E120" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E121" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D122" t="n">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E122" t="n">
-        <v>311</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D123" t="n">
-        <v>361</v>
+        <v>958</v>
       </c>
       <c r="E123" t="n">
-        <v>370</v>
+        <v>987</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E125" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="E126" t="n">
-        <v>94</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E127" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E128" t="n">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E129" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D130" t="n">
-        <v>1425</v>
+        <v>2467</v>
       </c>
       <c r="E130" t="n">
-        <v>1429</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -2635,32 +2635,32 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="E131" t="n">
-        <v>56</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E132" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -2669,66 +2669,66 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="E133" t="n">
-        <v>277</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D134" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="E134" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E135" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -2737,117 +2737,117 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E137" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="E138" t="n">
-        <v>94</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
       <c r="C139" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>599</v>
+        <v>361</v>
       </c>
       <c r="E139" t="n">
-        <v>619</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="E140" t="n">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="E142" t="n">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E143" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
@@ -2856,15 +2856,15 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E144" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -2873,117 +2873,117 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E145" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
-        <v>322</v>
+        <v>1425</v>
       </c>
       <c r="E146" t="n">
-        <v>323</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E147" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E148" t="n">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="E149" t="n">
-        <v>331</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E151" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -2992,83 +2992,83 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E152" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E153" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154" t="n">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="E154" t="n">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
       </c>
       <c r="C155" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>957</v>
+        <v>599</v>
       </c>
       <c r="E155" t="n">
-        <v>972</v>
+        <v>619</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D156" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E156" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
@@ -3077,32 +3077,32 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B158" t="s">
         <v>17</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="E158" t="n">
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B159" t="s">
         <v>18</v>
@@ -3111,15 +3111,15 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E159" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
@@ -3128,15 +3128,15 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E160" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
@@ -3145,32 +3145,32 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="E161" t="n">
-        <v>27</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1883</v>
+        <v>322</v>
       </c>
       <c r="E162" t="n">
-        <v>1914</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3179,66 +3179,66 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="E163" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -3247,406 +3247,406 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E167" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E169" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
-        <v>202</v>
+        <v>957</v>
       </c>
       <c r="E171" t="n">
-        <v>206</v>
+        <v>972</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="E172" t="n">
-        <v>19</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E174" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E175" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C176" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="E176" t="n">
-        <v>193</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E177" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D178" t="n">
-        <v>62</v>
+        <v>1883</v>
       </c>
       <c r="E178" t="n">
-        <v>70</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="E179" t="n">
-        <v>167</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
         <v>2</v>
       </c>
-      <c r="D181" t="n">
-        <v>36</v>
-      </c>
       <c r="E181" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E183" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E184" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="E185" t="n">
-        <v>490</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="E186" t="n">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D187" t="n">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="E187" t="n">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E188" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E189" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E190" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
@@ -3655,32 +3655,32 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E191" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D192" t="n">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="E192" t="n">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -3689,49 +3689,49 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E193" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E194" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E195" t="n">
-        <v>106</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
@@ -3740,32 +3740,32 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E196" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E197" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -3774,66 +3774,66 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E198" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E199" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B200" t="s">
         <v>13</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D200" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E200" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>254</v>
+        <v>490</v>
       </c>
       <c r="E201" t="n">
-        <v>256</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
@@ -3842,15 +3842,15 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E202" t="n">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
@@ -3859,15 +3859,15 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E203" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B204" t="s">
         <v>17</v>
@@ -3876,15 +3876,15 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E204" t="n">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B205" t="s">
         <v>18</v>
@@ -3893,32 +3893,32 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B206" t="s">
         <v>19</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E206" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
@@ -3927,15 +3927,15 @@
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E207" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3944,15 +3944,15 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E208" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -3961,15 +3961,15 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E209" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -3978,32 +3978,32 @@
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E210" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E211" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B212" t="s">
         <v>9</v>
@@ -4012,15 +4012,15 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E212" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -4029,15 +4029,15 @@
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E213" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -4046,15 +4046,15 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E214" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
@@ -4063,15 +4063,15 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E215" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B216" t="s">
         <v>13</v>
@@ -4080,49 +4080,49 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E216" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B217" t="s">
         <v>14</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="E217" t="n">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B218" t="s">
         <v>15</v>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E218" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B219" t="s">
         <v>16</v>
@@ -4131,15 +4131,15 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B220" t="s">
         <v>17</v>
@@ -4148,15 +4148,15 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E220" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
@@ -4165,32 +4165,32 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E221" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B222" t="s">
         <v>19</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E222" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
@@ -4199,32 +4199,32 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E223" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="E224" t="n">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -4233,15 +4233,15 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E225" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -4250,32 +4250,32 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E226" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E227" t="n">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
@@ -4284,32 +4284,32 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E228" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E229" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -4318,15 +4318,15 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E230" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B231" t="s">
         <v>12</v>
@@ -4335,15 +4335,15 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E231" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B232" t="s">
         <v>13</v>
@@ -4352,553 +4352,825 @@
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E232" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B233" t="s">
         <v>14</v>
       </c>
       <c r="C233" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>112</v>
+        <v>305</v>
       </c>
       <c r="E233" t="n">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E234" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B236" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E236" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="E237" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E238" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E239" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="E240" t="n">
-        <v>46</v>
+        <v>169</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E242" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D243" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E243" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E244" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E245" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C246" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="E246" t="n">
-        <v>265</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C247" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E247" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C248" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E248" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B249" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E249" t="n">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B250" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E250" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251" t="n">
         <v>5</v>
       </c>
-      <c r="C251" t="n">
-        <v>8</v>
-      </c>
       <c r="D251" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E252" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="E253" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D254" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E254" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E255" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E256" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E258" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E259" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E260" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E261" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C262" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E262" t="n">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B263" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C263" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B265" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" t="n">
+        <v>4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B266" t="s">
+        <v>19</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>13</v>
+      </c>
+      <c r="E266" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
         <v>44639</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>8</v>
+      </c>
+      <c r="D267" t="n">
+        <v>127</v>
+      </c>
+      <c r="E267" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>36</v>
+      </c>
+      <c r="E268" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>15</v>
+      </c>
+      <c r="E269" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>61</v>
+      </c>
+      <c r="E270" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>12</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>25</v>
+      </c>
+      <c r="E272" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>14</v>
+      </c>
+      <c r="E273" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>16</v>
+      </c>
+      <c r="E274" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="n">
+        <v>49</v>
+      </c>
+      <c r="E275" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B278" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" t="n">
+        <v>16</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B279" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" t="n">
+        <v>5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B280" t="s">
         <v>19</v>
       </c>
-      <c r="C264" t="n">
-        <v>0</v>
-      </c>
-      <c r="D264" t="n">
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
         <v>6</v>
       </c>
-      <c r="E264" t="n">
+      <c r="E280" t="n">
         <v>6</v>
       </c>
     </row>
